--- a/biology/Biologie cellulaire et moléculaire/KMT2A/KMT2A.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/KMT2A/KMT2A.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le KMT2A (pour « lysine N-méthyltransférase 2A », la lettre K symbolisant la lysine) est une protéine de type méthyltransférase dont le gène est KMT2A situé sur le chromosome 11 humain. Ses autres noms sont ALLL-1 (pour acute lymphoblastic leukemia 1), MLL (pour myeloid/lymphoid ou mixed-lineage leukemia (MLL), ou HRX (pour zinc finger protein HRX). 
 </t>
@@ -511,11 +523,13 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est l'un des composants d'un complexe protéique, le TFIID qui permet d'acétyler ou de méthyler les nucléosomes ou les histones[5]. 
-Il se fixe sur le promoteur du gène Hox, activant ce dernier et permettant la méthylation de l'histone H3[6].
-Il intervient dans le développement des cellules souches hématopoïétiques[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est l'un des composants d'un complexe protéique, le TFIID qui permet d'acétyler ou de méthyler les nucléosomes ou les histones. 
+Il se fixe sur le promoteur du gène Hox, activant ce dernier et permettant la méthylation de l'histone H3.
+Il intervient dans le développement des cellules souches hématopoïétiques.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La translocation du gène entraîne la formation d'une protéine perdant son rôle de méthyltransférase et favorise la transformation des cellules hématopoïétiques en cellules leucémiques[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La translocation du gène entraîne la formation d'une protéine perdant son rôle de méthyltransférase et favorise la transformation des cellules hématopoïétiques en cellules leucémiques.
 </t>
         </is>
       </c>
